--- a/biology/Botanique/Jardin_des_plantes_d'Amiens/Jardin_des_plantes_d'Amiens.xlsx
+++ b/biology/Botanique/Jardin_des_plantes_d'Amiens/Jardin_des_plantes_d'Amiens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_des_plantes_d%27Amiens</t>
+          <t>Jardin_des_plantes_d'Amiens</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin des plantes d'Amiens, ou le Jardin des plantes[a], est un jardin botanique situé à Amiens, dans le département de la Somme, dans la région des Hauts-de-France, entre la Citadelle et le centre-ville.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_des_plantes_d%27Amiens</t>
+          <t>Jardin_des_plantes_d'Amiens</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin des plantes d'Amiens a plus de 260 ans d'histoire. Par arrêt du Conseil d'État du 13 mai 1751, le roi Louis XV concéda à la ville d’Amiens, avec un revenu de 2 000 livres, le jardin du roi ou jardin du gouvernement (dont les gouverneurs de Picardie avaient eu, jusque-là, la jouissance), à la condition d'en faire un jardin botanique. C'est l'un des plus anciens de France.
 Dom Robbe, prieur du couvent des Feuillants, passionné de botanique transforma le Jardin du Roy en véritable jardin des plantes, pour l'étude et le perfectionnement des végétaux.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_des_plantes_d%27Amiens</t>
+          <t>Jardin_des_plantes_d'Amiens</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,8 +568,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Organisation
-C'est un jardin botanique, un jardin public et le lieu de production de plantes qui fleurissent la ville d’Amiens.
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>C'est un jardin botanique, un jardin public et le lieu de production de plantes qui fleurissent la ville d’Amiens.
 Sa gestion scientifique et technique est confiée à une équipe où sont représentés la Société linnéenne Nord-Picardie, l'université de Picardie Jules-Verne (UPJV), Parcs et jardins d'Amiens métropole.
 Il est entretenu selon les normes du développement durable (pas d’utilisation de pesticides, gestion différenciée des berges). Chaque plante est étiquetée et des panneaux présentent chaque collection. 
 Le tracé régulier des massifs, inchangé depuis le XVIIIe siècle, est matérialisé par des plates-bandes de buis.
@@ -563,9 +582,43 @@
 l'homme et la consommation ;
 l'homme et la santé ;
 l'homme et l'industrie ;
-la connaissance des plantes.
-Jardin ethnobotanique
-La place qu'occupe la Picardie dans le domaine de l'agro-alimentaire et de l'agro-industrie a incité l'équipe qui gère le Jardin, à retracer au travers du thème « l'homme et l'industrie », l'histoire de l'agriculture dans la région grâce aux collections de 136 Fabaceae, plantes cultivées autrefois et aujourd'hui :
+la connaissance des plantes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jardin_des_plantes_d'Amiens</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_des_plantes_d%27Amiens</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Jardin ethnobotanique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La place qu'occupe la Picardie dans le domaine de l'agro-alimentaire et de l'agro-industrie a incité l'équipe qui gère le Jardin, à retracer au travers du thème « l'homme et l'industrie », l'histoire de l'agriculture dans la région grâce aux collections de 136 Fabaceae, plantes cultivées autrefois et aujourd'hui :
 premières plantes cultivées (30 espèces), la carpologie, étude des fruits et des graines conservés dans les vestiges archéologiques, permet de connaître l’histoire des plantes consommées, l'évolution des pratiques agraires ;
 plantes oléagineuses ;
 plantes fourragères (29 espèces) ;
@@ -578,9 +631,43 @@
 plantes à parfum,
 plantes pour la fleuristerie,
 plantes valorisées en matériaux de construction,
-plantes dépolluantes.
-Flore remarquable
-Le jardin possède également :
+plantes dépolluantes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jardin_des_plantes_d'Amiens</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_des_plantes_d%27Amiens</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Flore remarquable</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le jardin possède également :
 une rocaille alpine ;
 une collection de rosiers ;
 des arbres ornementaux remarquables comme :
